--- a/filtered_table.xlsx
+++ b/filtered_table.xlsx
@@ -433,335 +433,49 @@
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2022</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2021</t>
-        </is>
-      </c>
-    </row>
+    <row r="11"/>
     <row r="12"/>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Total revenues</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8971</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7245</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5896</v>
-      </c>
-    </row>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15"/>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cost of revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Total cost of revenues [1]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1573</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1353</v>
-      </c>
-    </row>
+    <row r="16"/>
+    <row r="17"/>
     <row r="18"/>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Gross profit [1]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7050</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5672</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Operating expenses:</t>
-        </is>
-      </c>
-    </row>
+    <row r="19"/>
+    <row r="20"/>
     <row r="21"/>
     <row r="22"/>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>General and administrative</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>863</v>
-      </c>
-      <c r="C23" t="n">
-        <v>735</v>
-      </c>
-      <c r="D23" t="n">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Total operating expenses [1]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>6288</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5317</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4286</v>
-      </c>
-    </row>
+    <row r="23"/>
+    <row r="24"/>
     <row r="25"/>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Income from operations</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Interest income</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>302</v>
-      </c>
-    </row>
+    <row r="26"/>
+    <row r="27"/>
     <row r="28"/>
     <row r="29"/>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(Benefit from) provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-723</v>
-      </c>
-      <c r="C30" t="n">
-        <v>74</v>
-      </c>
-      <c r="D30" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C31" t="n">
-        <v>325</v>
-      </c>
-      <c r="D31" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Net income per share - basic (in USD per share)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
     <row r="36"/>
     <row r="37"/>
     <row r="38"/>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Other comprehensive income (loss)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Comprehensive income</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Subscription</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Total revenues</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>8680</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6891</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5573</v>
-      </c>
-    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
     <row r="44"/>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cost of revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Total cost of revenues</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1606</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1022</v>
-      </c>
-    </row>
+    <row r="45"/>
+    <row r="46"/>
     <row r="47"/>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Professional services and other</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Total revenues</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>291</v>
-      </c>
-      <c r="C50" t="n">
-        <v>354</v>
-      </c>
-      <c r="D50" t="n">
-        <v>323</v>
-      </c>
-    </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
     <row r="51"/>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Cost of revenues:</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Total cost of revenues</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>315</v>
-      </c>
-      <c r="C53" t="n">
-        <v>386</v>
-      </c>
-      <c r="D53" t="n">
-        <v>331</v>
-      </c>
-    </row>
+    <row r="52"/>
+    <row r="53"/>
     <row r="54"/>
     <row r="55"/>
     <row r="56"/>
@@ -802,26 +516,8 @@
     <row r="15"/>
     <row r="16"/>
     <row r="17"/>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Prepaid expenses and other current assets</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7777</v>
-      </c>
-    </row>
+    <row r="18"/>
+    <row r="19"/>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
@@ -830,111 +526,21 @@
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Other assets</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>17387</v>
-      </c>
-    </row>
+    <row r="28"/>
+    <row r="29"/>
     <row r="30"/>
     <row r="31"/>
     <row r="32"/>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Current portion of deferred revenue</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5785</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Current portion of operating lease liabilities</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>7365</v>
-      </c>
-    </row>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
     <row r="37"/>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Deferred revenue, less current portion</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Operating lease liabilities, less current portion</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>707</v>
-      </c>
-    </row>
+    <row r="38"/>
+    <row r="39"/>
     <row r="40"/>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Total liabilities</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>9759</v>
-      </c>
-    </row>
+    <row r="41"/>
+    <row r="42"/>
     <row r="43"/>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -965,32 +571,8 @@
     <row r="48"/>
     <row r="49"/>
     <row r="50"/>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Retained earnings</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C51" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>7628</v>
-      </c>
-      <c r="C52" t="n">
-        <v>5032</v>
-      </c>
-    </row>
+    <row r="51"/>
+    <row r="52"/>
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
@@ -1023,47 +605,10 @@
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2022</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12 Months Ended Dec. 31, 2021</t>
-        </is>
-      </c>
-    </row>
+    <row r="11"/>
     <row r="12"/>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C14" t="n">
-        <v>325</v>
-      </c>
-      <c r="D14" t="n">
-        <v>230</v>
-      </c>
-    </row>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15"/>
     <row r="16"/>
     <row r="17"/>
@@ -1076,54 +621,9 @@
     <row r="24"/>
     <row r="25"/>
     <row r="26"/>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-142</v>
-      </c>
-      <c r="C27" t="n">
-        <v>172</v>
-      </c>
-      <c r="D27" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Deferred revenue</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1085</v>
-      </c>
-      <c r="C28" t="n">
-        <v>904</v>
-      </c>
-      <c r="D28" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other liabilities</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>176</v>
-      </c>
-      <c r="C29" t="n">
-        <v>43</v>
-      </c>
-      <c r="D29" t="n">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
     <row r="30"/>
     <row r="31"/>
     <row r="32"/>
